--- a/dataAnalysis/simulationTrack.xlsx
+++ b/dataAnalysis/simulationTrack.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t># of nodes</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>Rng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duo </t>
+  </si>
+  <si>
+    <t>finsihed</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>fanout5</t>
+  </si>
+  <si>
+    <t>fanout10</t>
+  </si>
+  <si>
+    <t>adaptive</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>fanout1</t>
+  </si>
+  <si>
+    <t>data combinted</t>
   </si>
 </sst>
 </file>
@@ -74,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,7 +124,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -101,19 +134,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -511,10 +566,16 @@
       <c r="F2">
         <v>46</v>
       </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
       <c r="I2">
         <v>46</v>
       </c>
-      <c r="M2">
+      <c r="J2" s="2">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
         <v>100</v>
       </c>
     </row>
@@ -534,10 +595,16 @@
       <c r="F3">
         <v>24</v>
       </c>
+      <c r="G3" s="2">
+        <v>50</v>
+      </c>
       <c r="I3">
         <v>24</v>
       </c>
-      <c r="M3">
+      <c r="J3" s="2">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
         <v>100</v>
       </c>
     </row>
@@ -548,13 +615,22 @@
       <c r="C4">
         <v>29</v>
       </c>
+      <c r="D4" s="2">
+        <v>51</v>
+      </c>
       <c r="F4">
         <v>28</v>
       </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
       <c r="I4">
         <v>28</v>
       </c>
-      <c r="M4">
+      <c r="J4" s="2">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
         <v>100</v>
       </c>
     </row>
@@ -562,7 +638,16 @@
       <c r="A5">
         <v>130</v>
       </c>
-      <c r="M5">
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2">
         <v>100</v>
       </c>
     </row>
@@ -570,7 +655,16 @@
       <c r="A6">
         <v>170</v>
       </c>
-      <c r="M6">
+      <c r="D6" s="1">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2">
         <v>100</v>
       </c>
     </row>
@@ -578,8 +672,67 @@
       <c r="A7">
         <v>210</v>
       </c>
-      <c r="M7">
-        <v>100</v>
+      <c r="D7" s="1">
+        <v>74</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1">
+        <v>54</v>
+      </c>
+      <c r="M7" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
